--- a/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,17</t>
+          <t>-6,05; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 3,72</t>
+          <t>-6,93; 4,06</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,71</t>
+          <t>-7,15; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 3,14</t>
+          <t>-7,9; 3,01</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 1,24</t>
+          <t>-15,62; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 1,36</t>
+          <t>-17,33; 1,61</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 8,87</t>
+          <t>-2,87; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 10,85</t>
+          <t>-3,21; 9,96</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 0,41</t>
+          <t>-19,77; 1,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 0,63</t>
+          <t>-21,93; 1,24</t>
         </is>
       </c>
     </row>
@@ -744,12 +744,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 10,56</t>
+          <t>-4,61; 9,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 12,61</t>
+          <t>-4,94; 11,87</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-1,95%</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,77</t>
+          <t>-4,23; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,88</t>
+          <t>-4,79; 0,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Clase-trans_bre.xlsx
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,4</t>
+          <t>-5,96; 3,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,06</t>
+          <t>-6,84; 4,12</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 2,64</t>
+          <t>-7,18; 3,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 3,01</t>
+          <t>-7,91; 3,91</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 1,42</t>
+          <t>-16,0; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 1,61</t>
+          <t>-17,33; 1,34</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,3</t>
+          <t>-2,36; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 9,96</t>
+          <t>-2,62; 10,08</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 1,2</t>
+          <t>-18,54; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 1,24</t>
+          <t>-20,53; 0,69</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 9,86</t>
+          <t>-3,93; 11,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 11,87</t>
+          <t>-4,08; 13,7</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 0,85</t>
+          <t>-4,11; 0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,99</t>
+          <t>-4,66; 1,12</t>
         </is>
       </c>
     </row>
